--- a/Measurements_file.xlsx
+++ b/Measurements_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B772A070-B442-4CE4-922C-0F3129B2DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50D84D-F706-44A5-8362-F5AE4A988EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>Suchir</t>
   </si>
   <si>
-    <t xml:space="preserve">Rohan </t>
-  </si>
-  <si>
     <t>Monu</t>
+  </si>
+  <si>
+    <t>Potta</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,11 +739,77 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>34.5</v>
+      </c>
+      <c r="C13">
+        <v>27.7</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>10.7</v>
+      </c>
+      <c r="F13">
+        <v>11.5</v>
+      </c>
+      <c r="G13">
+        <v>10.4</v>
+      </c>
+      <c r="H13">
+        <v>10.5</v>
+      </c>
+      <c r="I13">
+        <v>6.5</v>
+      </c>
+      <c r="J13">
+        <v>6.8</v>
+      </c>
+      <c r="K13">
+        <v>22.2</v>
+      </c>
+      <c r="L13">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>46.5</v>
+      </c>
+      <c r="E14">
+        <v>12.5</v>
+      </c>
+      <c r="F14">
+        <v>12.8</v>
+      </c>
+      <c r="G14">
+        <v>11.5</v>
+      </c>
+      <c r="H14">
+        <v>11.9</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>7.4</v>
+      </c>
+      <c r="K14">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -800,12 +866,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements_file.xlsx
+++ b/Measurements_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50D84D-F706-44A5-8362-F5AE4A988EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479CE23-FA27-482C-A29D-6B2F8F9C3179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>Suchir</t>
-  </si>
-  <si>
-    <t>Monu</t>
-  </si>
-  <si>
-    <t>Potta</t>
   </si>
 </sst>
 </file>
@@ -469,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E2CE33-F495-4A9A-940E-E0A6662A5E14}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,6 +718,39 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>43.1</v>
+      </c>
+      <c r="E10">
+        <v>11.5</v>
+      </c>
+      <c r="F10">
+        <v>11.5</v>
+      </c>
+      <c r="G10">
+        <v>10.6</v>
+      </c>
+      <c r="H10">
+        <v>10.7</v>
+      </c>
+      <c r="I10">
+        <v>6.7</v>
+      </c>
+      <c r="J10">
+        <v>6.7</v>
+      </c>
+      <c r="K10">
+        <v>23.4</v>
+      </c>
+      <c r="L10">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -734,6 +761,39 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>45.2</v>
+      </c>
+      <c r="E12">
+        <v>12.5</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10.5</v>
+      </c>
+      <c r="I12">
+        <v>6.5</v>
+      </c>
+      <c r="J12">
+        <v>6.7</v>
+      </c>
+      <c r="K12">
+        <v>23.4</v>
+      </c>
+      <c r="L12">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -862,16 +922,6 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements_file.xlsx
+++ b/Measurements_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479CE23-FA27-482C-A29D-6B2F8F9C3179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2EE24-A515-4C01-92B1-EA2DC3A2BD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,13 +105,13 @@
     <t>Fawaz</t>
   </si>
   <si>
-    <t>Biju</t>
-  </si>
-  <si>
     <t>Srinath</t>
   </si>
   <si>
     <t>Suchir</t>
+  </si>
+  <si>
+    <t>Srikar</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,6 +703,39 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">

--- a/Measurements_file.xlsx
+++ b/Measurements_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2EE24-A515-4C01-92B1-EA2DC3A2BD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B8F30-A927-4C9D-8858-F4841BBA7B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>Suchir</t>
   </si>
   <si>
-    <t>Srikar</t>
+    <t>Ventra</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,6 +746,33 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>31.5</v>
+      </c>
+      <c r="D9">
+        <v>41.1</v>
+      </c>
+      <c r="E9">
+        <v>11.3</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>9.6</v>
+      </c>
+      <c r="H9">
+        <v>9.5</v>
+      </c>
+      <c r="I9">
+        <v>6.2</v>
+      </c>
+      <c r="J9">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -789,6 +816,39 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>33.5</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>35.4</v>
+      </c>
+      <c r="E11">
+        <v>9.6</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H11">
+        <v>9.9</v>
+      </c>
+      <c r="I11">
+        <v>6.4</v>
+      </c>
+      <c r="J11">
+        <v>6.4</v>
+      </c>
+      <c r="K11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -946,15 +1006,114 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>35.5</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>10.9</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>5.8</v>
+      </c>
+      <c r="J16">
+        <v>5.8</v>
+      </c>
+      <c r="K16">
+        <v>22.5</v>
+      </c>
+      <c r="L16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>38.6</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>43.5</v>
+      </c>
+      <c r="E17">
+        <v>11.8</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>9.4</v>
+      </c>
+      <c r="H17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I17">
+        <v>5.8</v>
+      </c>
+      <c r="J17">
+        <v>5.8</v>
+      </c>
+      <c r="K17">
+        <v>21.8</v>
+      </c>
+      <c r="L17">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
+      </c>
+      <c r="B18">
+        <v>43.5</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>45.7</v>
+      </c>
+      <c r="E18">
+        <v>13.1</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>11.5</v>
+      </c>
+      <c r="H18">
+        <v>11.6</v>
+      </c>
+      <c r="I18">
+        <v>6.9</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements_file.xlsx
+++ b/Measurements_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schai\OneDrive\Desktop\Course Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B8F30-A927-4C9D-8858-F4841BBA7B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A103C1-9538-44D2-9C1D-0A59FE1B73AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{173C3796-BA6A-4B58-9708-44CE546DF55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Shoulder</t>
   </si>
   <si>
-    <t>Phalguna</t>
-  </si>
-  <si>
     <t>Left Bicep</t>
   </si>
   <si>
@@ -60,58 +57,58 @@
     <t>Right Thigh</t>
   </si>
   <si>
-    <t>Prateeth</t>
-  </si>
-  <si>
     <t>Left Wrist</t>
   </si>
   <si>
     <t xml:space="preserve">Right Wrist </t>
   </si>
   <si>
-    <t>Sreevaatsav</t>
-  </si>
-  <si>
-    <t>Pranav Sunil</t>
-  </si>
-  <si>
-    <t>Yash</t>
-  </si>
-  <si>
-    <t>Pranay</t>
-  </si>
-  <si>
-    <t>Pradham</t>
-  </si>
-  <si>
-    <t>Chaitanya</t>
-  </si>
-  <si>
-    <t>Tharun</t>
-  </si>
-  <si>
-    <t>Dhanush</t>
-  </si>
-  <si>
-    <t>Pranav Reddy</t>
-  </si>
-  <si>
-    <t>Anish</t>
-  </si>
-  <si>
-    <t>Vivek</t>
-  </si>
-  <si>
-    <t>Fawaz</t>
-  </si>
-  <si>
-    <t>Srinath</t>
-  </si>
-  <si>
-    <t>Suchir</t>
-  </si>
-  <si>
-    <t>Ventra</t>
+    <t>phalguna</t>
+  </si>
+  <si>
+    <t>prateeth</t>
+  </si>
+  <si>
+    <t>sreevaatsav</t>
+  </si>
+  <si>
+    <t>sunil</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>pranay</t>
+  </si>
+  <si>
+    <t>pradham</t>
+  </si>
+  <si>
+    <t>chaitanya</t>
+  </si>
+  <si>
+    <t>tharun</t>
+  </si>
+  <si>
+    <t>reddy</t>
+  </si>
+  <si>
+    <t>anish</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>fawaz</t>
+  </si>
+  <si>
+    <t>srinath</t>
+  </si>
+  <si>
+    <t>suchir</t>
+  </si>
+  <si>
+    <t>srikar</t>
   </si>
 </sst>
 </file>
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E2CE33-F495-4A9A-940E-E0A6662A5E14}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,33 +482,33 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>35.5</v>
@@ -549,7 +546,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>38.5</v>
@@ -817,37 +814,37 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>33.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>35.4</v>
+        <v>45.2</v>
       </c>
       <c r="E11">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H11">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J11">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="K11">
-        <v>17.600000000000001</v>
+        <v>23.4</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -855,22 +852,22 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>37.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>27.7</v>
       </c>
       <c r="D12">
-        <v>45.2</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>12.5</v>
+        <v>10.7</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="H12">
         <v>10.5</v>
@@ -879,13 +876,13 @@
         <v>6.5</v>
       </c>
       <c r="J12">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="K12">
-        <v>23.4</v>
+        <v>22.2</v>
       </c>
       <c r="L12">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -893,37 +890,37 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>27.7</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>46.5</v>
       </c>
       <c r="E13">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
       <c r="F13">
+        <v>12.8</v>
+      </c>
+      <c r="G13">
         <v>11.5</v>
       </c>
-      <c r="G13">
-        <v>10.4</v>
-      </c>
       <c r="H13">
-        <v>10.5</v>
+        <v>11.9</v>
       </c>
       <c r="I13">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K13">
-        <v>22.2</v>
+        <v>27</v>
       </c>
       <c r="L13">
-        <v>22.5</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -931,37 +928,37 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>30.7</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>27.6</v>
       </c>
       <c r="D14">
-        <v>46.5</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="F14">
-        <v>12.8</v>
+        <v>9.5</v>
       </c>
       <c r="G14">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="H14">
-        <v>11.9</v>
+        <v>9.5</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>27</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L14">
-        <v>26.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -969,37 +966,37 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>30.7</v>
+        <v>35.5</v>
       </c>
       <c r="C15">
-        <v>27.6</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="F15">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H15">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K15">
-        <v>17.899999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="L15">
-        <v>18.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1007,25 +1004,25 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>35.5</v>
+        <v>38.6</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>43.5</v>
       </c>
       <c r="E16">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="F16">
         <v>11</v>
       </c>
       <c r="G16">
-        <v>9.6999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I16">
         <v>5.8</v>
@@ -1034,10 +1031,10 @@
         <v>5.8</v>
       </c>
       <c r="K16">
-        <v>22.5</v>
+        <v>21.8</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1045,74 +1042,36 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>38.6</v>
+        <v>43.5</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>43.5</v>
+        <v>45.7</v>
       </c>
       <c r="E17">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="H17">
-        <v>9.1999999999999993</v>
+        <v>11.6</v>
       </c>
       <c r="I17">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="J17">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>21.8</v>
+        <v>26</v>
       </c>
       <c r="L17">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>43.5</v>
-      </c>
-      <c r="C18">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>45.7</v>
-      </c>
-      <c r="E18">
-        <v>13.1</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>11.5</v>
-      </c>
-      <c r="H18">
-        <v>11.6</v>
-      </c>
-      <c r="I18">
-        <v>6.9</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>26</v>
-      </c>
-      <c r="L18">
         <v>26</v>
       </c>
     </row>
